--- a/marry_him_or_not_by_bayes/marryhim.xlsx
+++ b/marry_him_or_not_by_bayes/marryhim.xlsx
@@ -1,18 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28615"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C36D15A9-6A1C-4493-81DE-C5C7B7E0ABF7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fangzeqiang/Documents/GitHub/pyhton_to_learn/marry_him_or_not_by_bayes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3720" yWindow="460" windowWidth="10000" windowHeight="12640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -45,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -363,14 +373,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -462,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -496,7 +506,7 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>1</v>
